--- a/compute/实验8.4.2/result.xlsx
+++ b/compute/实验8.4.2/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pythonProject\EdgeFed-MARL-MEC\compute\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\pythonProject\EdgeFed-MARL-MEC\compute\实验8.4.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852985B4-A262-4546-BE07-2233DC1B0F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6620C70-E5CD-48DE-AF1E-EFB30F82A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="2295" windowWidth="23160" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>filenames</t>
   </si>
@@ -76,6 +76,22 @@
   </si>
   <si>
     <t>平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,11 +159,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +181,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,251 +497,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>7.6685518466666656</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>25.129283340666671</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>6.9228555533333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>7.6146984473333337</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>26.407644437333339</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>6.8388514326666678</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>7.6872723956666666</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>25.139066659333331</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>6.9339765733333332</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>7.6768967543333337</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>25.436244443333329</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>6.9165648370000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>7.6810600926666668</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>25.91170000266667</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>6.9034275049999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C6)</f>
+      <c r="B7" s="5"/>
+      <c r="D7" s="1">
+        <f>AVERAGE(D2:D6)</f>
         <v>7.6656959073333342</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:E7" si="0">AVERAGE(D2:D6)</f>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:F7" si="0">AVERAGE(E2:E6)</f>
         <v>25.604787776666665</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>6.9031351802666663</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="1">
+        <f>_xlfn.STDEV.P(D2:D6)</f>
+        <v>2.6214344657840085E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:F8" si="1">_xlfn.STDEV.P(E2:E6)</f>
+        <v>0.49197183151926788</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3624175765084183E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>7.6990952400000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>25.32123889066667</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>6.9356242243333339</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>7.6849106333333328</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>24.430800004999998</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>6.9598973740000014</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>7.6799130199999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>24.979088889</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>6.9360904066666684</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>7.6798296646666664</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>25.286888882</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>6.9248202873333344</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>7.6944269893333344</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>25.222844447</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>6.9357208726666677</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <f>AVERAGE(C12:C16)</f>
+      <c r="D17" s="1">
+        <f>AVERAGE(D12:D16)</f>
         <v>7.6876351094666671</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" ref="D17:E17" si="1">AVERAGE(D12:D16)</f>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:F17" si="2">AVERAGE(E12:E16)</f>
         <v>25.048172222733335</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
         <v>6.9384306330000012</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <f>_xlfn.STDEV.P(D12:D16)</f>
+        <v>7.8159148974697914E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:F18" si="3">_xlfn.STDEV.P(E12:E16)</f>
+        <v>0.33105358983300737</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1547795185981799E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B12:B16"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
